--- a/docs/Протокол/GyverLamp_UDP.xlsx
+++ b/docs/Протокол/GyverLamp_UDP.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FeryaFox\Desktop\GyverLamp2Sync\docs\Протокол\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94757937-C100-4AA6-A324-1354774BCF6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="26370" windowHeight="12735"/>
+    <workbookView xWindow="24825" yWindow="21105" windowWidth="27045" windowHeight="19215" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="168">
   <si>
     <t>Дата 0 (ключ GL)</t>
   </si>
@@ -479,19 +485,52 @@
   </si>
   <si>
     <t>0.. 255</t>
+  </si>
+  <si>
+    <t>20 - синхронизация</t>
+  </si>
+  <si>
+    <t>RGL</t>
+  </si>
+  <si>
+    <t>0 - настройки (RGL 0)</t>
+  </si>
+  <si>
+    <t>Режим WIFI (0 AP, 1 Local)</t>
+  </si>
+  <si>
+    <t>Роль (0 slave, 1 master)</t>
+  </si>
+  <si>
+    <t>Номер группы</t>
+  </si>
+  <si>
+    <t>1 - настройки (RGL 1)</t>
+  </si>
+  <si>
+    <t>номер режима</t>
+  </si>
+  <si>
+    <t>2 - Режим (RGL 2)</t>
+  </si>
+  <si>
+    <t>3 - расвет (RGL 3)</t>
+  </si>
+  <si>
+    <t>? ? ? ?</t>
+  </si>
+  <si>
+    <t>5 - палитра (RGL 5)</t>
+  </si>
+  <si>
+    <t>6 - номер версии синхронизации</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -512,346 +551,16 @@
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -859,251 +568,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1124,61 +591,17 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="20% — Акцент3" xfId="1" builtinId="38"/>
-    <cellStyle name="Денежный [0]" xfId="2" builtinId="7"/>
-    <cellStyle name="40% — Акцент5" xfId="3" builtinId="47"/>
-    <cellStyle name="Хороший" xfId="4" builtinId="26"/>
-    <cellStyle name="Запятая [0]" xfId="5" builtinId="6"/>
-    <cellStyle name="Денежный" xfId="6" builtinId="4"/>
-    <cellStyle name="Запятая" xfId="7" builtinId="3"/>
-    <cellStyle name="40% — Акцент6" xfId="8" builtinId="51"/>
-    <cellStyle name="Процент" xfId="9" builtinId="5"/>
-    <cellStyle name="20% — Акцент2" xfId="10" builtinId="34"/>
-    <cellStyle name="Итого" xfId="11" builtinId="25"/>
-    <cellStyle name="Вывод" xfId="12" builtinId="21"/>
-    <cellStyle name="Гиперссылка" xfId="13" builtinId="8"/>
-    <cellStyle name="40% — Акцент4" xfId="14" builtinId="43"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="15" builtinId="9"/>
-    <cellStyle name="Примечание" xfId="16" builtinId="10"/>
-    <cellStyle name="Предупреждающий текст" xfId="17" builtinId="11"/>
-    <cellStyle name="Заголовок" xfId="18" builtinId="15"/>
-    <cellStyle name="Пояснительный текст" xfId="19" builtinId="53"/>
-    <cellStyle name="Заголовок 1" xfId="20" builtinId="16"/>
-    <cellStyle name="Заголовок 2" xfId="21" builtinId="17"/>
-    <cellStyle name="Заголовок 3" xfId="22" builtinId="18"/>
-    <cellStyle name="Заголовок 4" xfId="23" builtinId="19"/>
-    <cellStyle name="Ввод" xfId="24" builtinId="20"/>
-    <cellStyle name="Проверить ячейку" xfId="25" builtinId="23"/>
-    <cellStyle name="Вычисление" xfId="26" builtinId="22"/>
-    <cellStyle name="Связанная ячейка" xfId="27" builtinId="24"/>
-    <cellStyle name="Плохой" xfId="28" builtinId="27"/>
-    <cellStyle name="Акцент5" xfId="29" builtinId="45"/>
-    <cellStyle name="Нейтральный" xfId="30" builtinId="28"/>
-    <cellStyle name="Акцент1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% — Акцент1" xfId="32" builtinId="30"/>
-    <cellStyle name="40% — Акцент1" xfId="33" builtinId="31"/>
-    <cellStyle name="20% — Акцент5" xfId="34" builtinId="46"/>
-    <cellStyle name="60% — Акцент1" xfId="35" builtinId="32"/>
-    <cellStyle name="Акцент2" xfId="36" builtinId="33"/>
-    <cellStyle name="40% — Акцент2" xfId="37" builtinId="35"/>
-    <cellStyle name="20% — Акцент6" xfId="38" builtinId="50"/>
-    <cellStyle name="60% — Акцент2" xfId="39" builtinId="36"/>
-    <cellStyle name="Акцент3" xfId="40" builtinId="37"/>
-    <cellStyle name="40% — Акцент3" xfId="41" builtinId="39"/>
-    <cellStyle name="60% — Акцент3" xfId="42" builtinId="40"/>
-    <cellStyle name="Акцент4" xfId="43" builtinId="41"/>
-    <cellStyle name="20% — Акцент4" xfId="44" builtinId="42"/>
-    <cellStyle name="60% — Акцент4" xfId="45" builtinId="44"/>
-    <cellStyle name="60% — Акцент5" xfId="46" builtinId="48"/>
-    <cellStyle name="Акцент6" xfId="47" builtinId="49"/>
-    <cellStyle name="60% — Акцент6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1436,24 +859,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:AD62"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AE62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.8571428571429" style="1" customWidth="1"/>
-    <col min="3" max="29" width="15.7142857142857" style="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.14285714285714" style="1"/>
+    <col min="2" max="2" width="16.85546875" style="1" customWidth="1"/>
+    <col min="3" max="29" width="15.7109375" style="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28">
@@ -1540,7 +963,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" ht="30" customHeight="1" spans="1:19">
+    <row r="2" spans="1:28" ht="30" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
         <v>27</v>
@@ -1575,7 +998,7 @@
       <c r="R2" s="3"/>
       <c r="S2" s="3"/>
     </row>
-    <row r="3" ht="30" customHeight="1" spans="1:19">
+    <row r="3" spans="1:28" ht="30" customHeight="1">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="D3" s="3" t="s">
@@ -1605,7 +1028,7 @@
       <c r="R3" s="3"/>
       <c r="S3" s="3"/>
     </row>
-    <row r="4" ht="30" customHeight="1" spans="1:19">
+    <row r="4" spans="1:28" ht="30" customHeight="1">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="D4" s="3" t="s">
@@ -1627,7 +1050,7 @@
       <c r="R4" s="3"/>
       <c r="S4" s="3"/>
     </row>
-    <row r="5" ht="30" customHeight="1" spans="1:19">
+    <row r="5" spans="1:28" ht="30" customHeight="1">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="D5" s="3" t="s">
@@ -1649,7 +1072,7 @@
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
     </row>
-    <row r="6" ht="30" customHeight="1" spans="1:19">
+    <row r="6" spans="1:28" ht="30" customHeight="1">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="D6" s="3" t="s">
@@ -1679,7 +1102,7 @@
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
     </row>
-    <row r="7" ht="30" customHeight="1" spans="1:19">
+    <row r="7" spans="1:28" ht="30" customHeight="1">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -1710,7 +1133,7 @@
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
     </row>
-    <row r="8" ht="30" customHeight="1" spans="1:19">
+    <row r="8" spans="1:28" ht="30" customHeight="1">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -1735,7 +1158,7 @@
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
     </row>
-    <row r="9" ht="30" customHeight="1" spans="1:19">
+    <row r="9" spans="1:28" ht="30" customHeight="1">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -1760,7 +1183,7 @@
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
     </row>
-    <row r="10" ht="30" customHeight="1" spans="1:19">
+    <row r="10" spans="1:28" ht="30" customHeight="1">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -1785,7 +1208,7 @@
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
     </row>
-    <row r="11" ht="30" customHeight="1" spans="1:19">
+    <row r="11" spans="1:28" ht="30" customHeight="1">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -1810,7 +1233,7 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
     </row>
-    <row r="12" ht="30" customHeight="1" spans="1:19">
+    <row r="12" spans="1:28" ht="30" customHeight="1">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -1837,7 +1260,7 @@
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
     </row>
-    <row r="13" ht="30" customHeight="1" spans="1:19">
+    <row r="13" spans="1:28" ht="30" customHeight="1">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1860,7 +1283,7 @@
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
     </row>
-    <row r="14" ht="30" customHeight="1" spans="1:19">
+    <row r="14" spans="1:28" ht="30" customHeight="1">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1883,7 +1306,7 @@
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
     </row>
-    <row r="15" ht="30" customHeight="1" spans="1:5">
+    <row r="15" spans="1:28" ht="30" customHeight="1">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="D15" s="1" t="s">
@@ -1893,11 +1316,11 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" ht="30" customHeight="1" spans="1:2">
+    <row r="16" spans="1:28" ht="30" customHeight="1">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
     </row>
-    <row r="17" ht="30" customHeight="1" spans="1:29">
+    <row r="17" spans="1:30" ht="30" customHeight="1">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="2" t="s">
@@ -1982,7 +1405,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" ht="30" customHeight="1" spans="1:25">
+    <row r="18" spans="1:30" ht="30" customHeight="1">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -2053,7 +1476,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" ht="30" customHeight="1" spans="1:19">
+    <row r="19" spans="1:30" ht="30" customHeight="1">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -2072,7 +1495,7 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
     </row>
-    <row r="20" ht="30" customHeight="1" spans="1:24">
+    <row r="20" spans="1:30" ht="30" customHeight="1">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="4" t="s">
@@ -2142,7 +1565,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" ht="30" customHeight="1" spans="1:20">
+    <row r="21" spans="1:30" ht="30" customHeight="1">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -2191,7 +1614,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="22" ht="30" customHeight="1" spans="1:19">
+    <row r="22" spans="1:30" ht="30" customHeight="1">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -2209,7 +1632,7 @@
       <c r="R22" s="3"/>
       <c r="S22" s="3"/>
     </row>
-    <row r="23" ht="30" customHeight="1" spans="1:30">
+    <row r="23" spans="1:30" ht="30" customHeight="1">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="2" t="s">
@@ -2297,7 +1720,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" ht="30" customHeight="1" spans="1:26">
+    <row r="24" spans="1:30" ht="30" customHeight="1">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -2371,7 +1794,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="25" ht="30" customHeight="1" spans="1:19">
+    <row r="25" spans="1:30" ht="30" customHeight="1">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -2389,7 +1812,7 @@
       <c r="R25" s="3"/>
       <c r="S25" s="3"/>
     </row>
-    <row r="26" ht="30" customHeight="1" spans="1:19">
+    <row r="26" spans="1:30" ht="30" customHeight="1">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="2" t="s">
@@ -2442,7 +1865,7 @@
       </c>
       <c r="S26" s="3"/>
     </row>
-    <row r="27" ht="30" customHeight="1" spans="1:19">
+    <row r="27" spans="1:30" ht="30" customHeight="1">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -2485,7 +1908,7 @@
       <c r="R27" s="3"/>
       <c r="S27" s="3"/>
     </row>
-    <row r="28" ht="30" customHeight="1" spans="1:19">
+    <row r="28" spans="1:30" ht="30" customHeight="1">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -2505,11 +1928,15 @@
       <c r="R28" s="3"/>
       <c r="S28" s="3"/>
     </row>
-    <row r="29" ht="30" customHeight="1" spans="1:19">
+    <row r="29" spans="1:30" ht="30" customHeight="1">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="3"/>
+      <c r="C29" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>157</v>
+      </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
@@ -2525,11 +1952,13 @@
       <c r="R29" s="3"/>
       <c r="S29" s="3"/>
     </row>
-    <row r="30" ht="30" customHeight="1" spans="1:19">
+    <row r="30" spans="1:30" ht="30" customHeight="1">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
+      <c r="D30" s="3" t="s">
+        <v>161</v>
+      </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
@@ -2545,11 +1974,13 @@
       <c r="R30" s="3"/>
       <c r="S30" s="3"/>
     </row>
-    <row r="31" ht="30" customHeight="1" spans="1:19">
+    <row r="31" spans="1:30" ht="30" customHeight="1">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
+      <c r="D31" s="3" t="s">
+        <v>163</v>
+      </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
@@ -2565,11 +1996,13 @@
       <c r="R31" s="3"/>
       <c r="S31" s="3"/>
     </row>
-    <row r="32" ht="30" customHeight="1" spans="1:19">
+    <row r="32" spans="1:30" ht="30" customHeight="1">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
+      <c r="D32" s="3" t="s">
+        <v>164</v>
+      </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
@@ -2586,11 +2019,13 @@
       <c r="R32" s="3"/>
       <c r="S32" s="3"/>
     </row>
-    <row r="33" ht="30" customHeight="1" spans="1:19">
+    <row r="33" spans="1:31" ht="30" customHeight="1">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
+      <c r="D33" s="3" t="s">
+        <v>166</v>
+      </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
@@ -2607,11 +2042,13 @@
       <c r="R33" s="3"/>
       <c r="S33" s="3"/>
     </row>
-    <row r="34" ht="30" customHeight="1" spans="1:19">
+    <row r="34" spans="1:31" ht="30" customHeight="1">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
+      <c r="D34" s="3" t="s">
+        <v>167</v>
+      </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
@@ -2628,7 +2065,7 @@
       <c r="R34" s="3"/>
       <c r="S34" s="3"/>
     </row>
-    <row r="35" ht="30" customHeight="1" spans="1:19">
+    <row r="35" spans="1:31" ht="30" customHeight="1">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -2649,18 +2086,38 @@
       <c r="R35" s="3"/>
       <c r="S35" s="3"/>
     </row>
-    <row r="36" ht="30" customHeight="1" spans="1:19">
+    <row r="36" spans="1:31" ht="30" customHeight="1">
       <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
+      <c r="B36" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C36" s="3">
+        <v>0</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>160</v>
+      </c>
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
       <c r="N36" s="3"/>
@@ -2670,7 +2127,7 @@
       <c r="R36" s="3"/>
       <c r="S36" s="3"/>
     </row>
-    <row r="37" ht="30" customHeight="1" spans="1:19">
+    <row r="37" spans="1:31" ht="30" customHeight="1">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -2691,51 +2148,164 @@
       <c r="R37" s="3"/>
       <c r="S37" s="3"/>
     </row>
-    <row r="38" ht="30" customHeight="1" spans="1:19">
+    <row r="38" spans="1:31" ht="30" customHeight="1">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
-      <c r="N38" s="3"/>
-      <c r="O38" s="3"/>
-      <c r="P38" s="3"/>
-      <c r="Q38" s="3"/>
-      <c r="R38" s="3"/>
-      <c r="S38" s="3"/>
-    </row>
-    <row r="39" ht="30" customHeight="1" spans="1:19">
+      <c r="C38" s="3">
+        <v>1</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="L38" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="M38" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="N38" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P38" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q38" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="R38" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="S38" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="T38" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="U38" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="V38" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="W38" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="X38" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y38" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z38" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA38" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB38" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC38" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:31" ht="30" customHeight="1">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
-      <c r="N39" s="3"/>
-      <c r="O39" s="3"/>
-      <c r="P39" s="3"/>
-      <c r="Q39" s="3"/>
-      <c r="R39" s="3"/>
-      <c r="S39" s="3"/>
-    </row>
-    <row r="40" ht="30" customHeight="1" spans="1:19">
+      <c r="D39" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="M39" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="N39" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="P39" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q39" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="R39" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="S39" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="T39" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="U39" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="V39" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="W39" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="X39" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y39" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40" spans="1:31" ht="30" customHeight="1">
       <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
@@ -2754,49 +2324,126 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
     </row>
-    <row r="41" ht="30" customHeight="1" spans="1:19">
+    <row r="41" spans="1:31" ht="30" customHeight="1">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
-      <c r="M41" s="3"/>
-      <c r="N41" s="3"/>
-      <c r="O41" s="3"/>
-      <c r="P41" s="3"/>
-      <c r="Q41" s="3"/>
-      <c r="R41" s="3"/>
-      <c r="S41" s="3"/>
-    </row>
-    <row r="42" spans="1:19">
+      <c r="C41" s="3">
+        <v>2</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="P41" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="R41" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="S41" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="T41" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="U41" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="V41" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="W41" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="X41" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="42" spans="1:31" ht="32.25" customHeight="1">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
-      <c r="M42" s="3"/>
-      <c r="N42" s="3"/>
-      <c r="O42" s="3"/>
-      <c r="P42" s="3"/>
-      <c r="Q42" s="3"/>
-      <c r="R42" s="3"/>
-      <c r="S42" s="3"/>
-    </row>
-    <row r="43" spans="1:19">
+      <c r="D42" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="N42" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="P42" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q42" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="R42" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="S42" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="T42" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="U42" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="V42" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="W42" s="3"/>
+      <c r="X42" s="3"/>
+    </row>
+    <row r="43" spans="1:31">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -2817,49 +2464,175 @@
       <c r="R43" s="3"/>
       <c r="S43" s="3"/>
     </row>
-    <row r="44" spans="1:19">
+    <row r="44" spans="1:31" ht="30">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
-      <c r="K44" s="3"/>
-      <c r="L44" s="3"/>
-      <c r="M44" s="3"/>
-      <c r="N44" s="3"/>
-      <c r="O44" s="3"/>
-      <c r="P44" s="3"/>
-      <c r="Q44" s="3"/>
-      <c r="R44" s="3"/>
-      <c r="S44" s="3"/>
-    </row>
-    <row r="45" spans="1:19">
+      <c r="C44" s="3">
+        <v>3</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="O44" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="P44" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q44" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="R44" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="S44" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="T44" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="U44" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="V44" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="W44" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="X44" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y44" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z44" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AA44" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="AB44" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC44" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD44" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE44" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" spans="1:31" ht="30">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
-      <c r="K45" s="3"/>
-      <c r="L45" s="3"/>
-      <c r="M45" s="3"/>
-      <c r="N45" s="3"/>
-      <c r="O45" s="3"/>
-      <c r="P45" s="3"/>
-      <c r="Q45" s="3"/>
-      <c r="R45" s="3"/>
-      <c r="S45" s="3"/>
-    </row>
-    <row r="46" spans="1:19">
+      <c r="D45" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="S45" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="T45" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="U45" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="V45" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="W45" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="X45" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y45" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z45" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA45" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="46" spans="1:31">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -2880,42 +2653,96 @@
       <c r="R46" s="3"/>
       <c r="S46" s="3"/>
     </row>
-    <row r="47" spans="1:19">
+    <row r="47" spans="1:31" ht="30">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
-      <c r="K47" s="3"/>
-      <c r="L47" s="3"/>
-      <c r="M47" s="3"/>
-      <c r="N47" s="3"/>
-      <c r="O47" s="3"/>
-      <c r="P47" s="3"/>
-      <c r="Q47" s="3"/>
-      <c r="R47" s="3"/>
+      <c r="C47" s="3">
+        <v>5</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="N47" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P47" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q47" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R47" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="S47" s="3"/>
     </row>
-    <row r="48" spans="1:19">
+    <row r="48" spans="1:31">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
-      <c r="J48" s="3"/>
-      <c r="K48" s="3"/>
-      <c r="L48" s="3"/>
-      <c r="M48" s="3"/>
-      <c r="N48" s="3"/>
+      <c r="D48" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="N48" s="1" t="s">
+        <v>154</v>
+      </c>
       <c r="O48" s="3"/>
       <c r="P48" s="3"/>
       <c r="Q48" s="3"/>
@@ -3037,16 +2864,6 @@
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
-      <c r="J54" s="3"/>
-      <c r="K54" s="3"/>
-      <c r="L54" s="3"/>
-      <c r="M54" s="3"/>
-      <c r="N54" s="3"/>
-      <c r="O54" s="3"/>
-      <c r="P54" s="3"/>
-      <c r="Q54" s="3"/>
-      <c r="R54" s="3"/>
-      <c r="S54" s="3"/>
     </row>
     <row r="55" spans="1:19">
       <c r="A55" s="3"/>
@@ -3058,16 +2875,6 @@
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
       <c r="I55" s="3"/>
-      <c r="J55" s="3"/>
-      <c r="K55" s="3"/>
-      <c r="L55" s="3"/>
-      <c r="M55" s="3"/>
-      <c r="N55" s="3"/>
-      <c r="O55" s="3"/>
-      <c r="P55" s="3"/>
-      <c r="Q55" s="3"/>
-      <c r="R55" s="3"/>
-      <c r="S55" s="3"/>
     </row>
     <row r="56" spans="1:19">
       <c r="A56" s="3"/>
@@ -3218,6 +3025,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/docs/Протокол/GyverLamp_UDP.xlsx
+++ b/docs/Протокол/GyverLamp_UDP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FeryaFox\Desktop\GyverLamp2Sync\docs\Протокол\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94757937-C100-4AA6-A324-1354774BCF6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C28AA3B8-A29D-4E22-A8A3-D243C56DE38D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24825" yWindow="21105" windowWidth="27045" windowHeight="19215" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19245" yWindow="0" windowWidth="42285" windowHeight="15450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="169">
   <si>
     <t>Дата 0 (ключ GL)</t>
   </si>
@@ -524,6 +524,9 @@
   </si>
   <si>
     <t>6 - номер версии синхронизации</t>
+  </si>
+  <si>
+    <t>флаг на свою яркость</t>
   </si>
 </sst>
 </file>
@@ -867,8 +870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1508,7 +1511,7 @@
         <v>94</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>95</v>
+        <v>168</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>96</v>

--- a/docs/Протокол/GyverLamp_UDP.xlsx
+++ b/docs/Протокол/GyverLamp_UDP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FeryaFox\Desktop\GyverLamp2Sync\docs\Протокол\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C28AA3B8-A29D-4E22-A8A3-D243C56DE38D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4FADDC8-1389-4762-B30A-309DD60066C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19245" yWindow="0" windowWidth="42285" windowHeight="15450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30612" yWindow="4068" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -490,9 +490,6 @@
     <t>20 - синхронизация</t>
   </si>
   <si>
-    <t>RGL</t>
-  </si>
-  <si>
     <t>0 - настройки (RGL 0)</t>
   </si>
   <si>
@@ -527,6 +524,9 @@
   </si>
   <si>
     <t>флаг на свою яркость</t>
+  </si>
+  <si>
+    <t>GL_RESP</t>
   </si>
 </sst>
 </file>
@@ -871,7 +871,7 @@
   <dimension ref="A1:AE62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1511,7 +1511,7 @@
         <v>94</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>96</v>
@@ -1938,7 +1938,7 @@
         <v>155</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -1960,7 +1960,7 @@
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -1982,7 +1982,7 @@
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -2004,7 +2004,7 @@
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -2027,7 +2027,7 @@
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -2050,7 +2050,7 @@
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -2092,7 +2092,7 @@
     <row r="36" spans="1:31" ht="30" customHeight="1">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="C36" s="3">
         <v>0</v>
@@ -2113,13 +2113,13 @@
         <v>40</v>
       </c>
       <c r="I36" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="J36" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="J36" s="3" t="s">
+      <c r="K36" s="3" t="s">
         <v>159</v>
-      </c>
-      <c r="K36" s="3" t="s">
-        <v>160</v>
       </c>
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
@@ -2334,7 +2334,7 @@
         <v>2</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>93</v>
@@ -2543,7 +2543,7 @@
         <v>138</v>
       </c>
       <c r="AA44" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AB44" s="3" t="s">
         <v>30</v>
